--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491387A-5904-8943-951A-499A1A44CEC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379FEA86-BCC5-BF42-BA39-22C9BC2934FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="3300" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="28600" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>week</t>
   </si>
@@ -84,12 +84,6 @@
     <t>lecture_link</t>
   </si>
   <si>
-    <t>Lab 2; HW 1</t>
-  </si>
-  <si>
-    <t>Prop</t>
-  </si>
-  <si>
     <t>Your final project is due before midnight</t>
   </si>
   <si>
@@ -108,33 +102,15 @@
     <t>other; other</t>
   </si>
   <si>
-    <t>lab-1</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
-    <t>Draft; HW2</t>
-  </si>
-  <si>
     <t>assignments/#peer-review</t>
   </si>
   <si>
     <t>assignments/#final-project</t>
   </si>
   <si>
-    <t>lab-3</t>
-  </si>
-  <si>
-    <t>lab-2; homework-1</t>
-  </si>
-  <si>
-    <t>assignments/#proposal</t>
-  </si>
-  <si>
-    <t>assignments/#draft; homework-2</t>
-  </si>
-  <si>
     <t>Data types</t>
   </si>
   <si>
@@ -313,6 +289,21 @@
   </si>
   <si>
     <t>The odd Monday lab day - this lab was delayed a bit so we could have a bit more of an introduction to functions before having an entire lab devoted to them. This will be the final lab for the class and will ask you to create and apply functions.</t>
+  </si>
+  <si>
+    <t>Lab 2; Outline</t>
+  </si>
+  <si>
+    <t>assignments; assignments/#outline</t>
+  </si>
+  <si>
+    <t>assigments</t>
+  </si>
+  <si>
+    <t>assignments/#draft</t>
+  </si>
+  <si>
+    <t>Draft</t>
   </si>
 </sst>
 </file>
@@ -693,9 +684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,22 +756,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -791,17 +782,17 @@
         <v>44286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L3" s="1">
         <v>5.3</v>
@@ -815,11 +806,11 @@
         <v>44291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -834,22 +825,22 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -860,11 +851,11 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -879,25 +870,25 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L7" s="1">
         <v>25</v>
@@ -911,23 +902,23 @@
         <v>44305</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -942,32 +933,32 @@
         <v>44307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M9" s="6"/>
     </row>
@@ -979,11 +970,11 @@
         <v>44312</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -994,16 +985,10 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -1014,17 +999,17 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="M12" s="6"/>
     </row>
@@ -1036,31 +1021,25 @@
         <v>44321</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M13" s="6"/>
     </row>
@@ -1076,16 +1055,22 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M14" s="6"/>
     </row>
@@ -1097,16 +1082,16 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="M15" s="6"/>
     </row>
@@ -1118,16 +1103,22 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1138,29 +1129,29 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
@@ -1171,18 +1162,18 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1193,23 +1184,23 @@
         <v>44342</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1220,11 +1211,11 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1236,11 +1227,11 @@
         <v>44349</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1254,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379FEA86-BCC5-BF42-BA39-22C9BC2934FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8436656-DD10-F948-9A3A-B3D9F16782DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28600" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="25900" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>assigned_title</t>
   </si>
   <si>
-    <t>syllabus/#final-project</t>
-  </si>
-  <si>
     <t>Lab 1</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Draft</t>
+  </si>
+  <si>
+    <t>take-home-midterm</t>
   </si>
 </sst>
 </file>
@@ -684,9 +684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -727,22 +727,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -756,22 +756,22 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -782,17 +782,17 @@
         <v>44286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="L3" s="1">
         <v>5.3</v>
@@ -806,11 +806,11 @@
         <v>44291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -821,26 +821,26 @@
         <v>44293</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -851,11 +851,11 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -866,29 +866,29 @@
         <v>44300</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="1">
         <v>25</v>
@@ -902,23 +902,23 @@
         <v>44305</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -933,32 +933,32 @@
         <v>44307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M9" s="6"/>
     </row>
@@ -970,11 +970,11 @@
         <v>44312</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -985,10 +985,10 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -999,17 +999,17 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" s="6"/>
     </row>
@@ -1021,25 +1021,25 @@
         <v>44321</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="6"/>
     </row>
@@ -1051,26 +1051,26 @@
         <v>44326</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="6"/>
     </row>
@@ -1082,16 +1082,16 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="6"/>
     </row>
@@ -1103,22 +1103,22 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1129,29 +1129,29 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
@@ -1162,18 +1162,18 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1184,23 +1184,23 @@
         <v>44342</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1211,11 +1211,11 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1227,11 +1227,11 @@
         <v>44349</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1242,16 +1242,16 @@
         <v>44356</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8436656-DD10-F948-9A3A-B3D9F16782DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DAA67-E183-6A49-ADCE-3F75CCB0B331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25900" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>week</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>take-home-midterm</t>
+  </si>
+  <si>
+    <t>w1p1</t>
   </si>
 </sst>
 </file>
@@ -684,9 +687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,6 +758,9 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>44</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DAA67-E183-6A49-ADCE-3F75CCB0B331}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144BA83C-3923-0D41-8CB5-0D32D3B86DDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25900" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>week</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>w1p1</t>
+  </si>
+  <si>
+    <t>w1p2</t>
+  </si>
+  <si>
+    <t>lab-1</t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,7 +796,9 @@
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
@@ -834,7 +842,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144BA83C-3923-0D41-8CB5-0D32D3B86DDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AB24CD-1D5A-E545-A178-2E5F40D7945D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25900" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>week</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>lab-1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8GeUGWMaf-M</t>
+  </si>
+  <si>
+    <t>w2p1</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,6 +791,9 @@
       <c r="L2" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -822,7 +831,9 @@
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>46</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AB24CD-1D5A-E545-A178-2E5F40D7945D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7A6F5-B20B-3245-983C-58342770EFE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25900" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
   <si>
     <t>week</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>w2p1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Mh1oVqaj6dI</t>
   </si>
 </sst>
 </file>
@@ -700,8 +703,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,6 +823,9 @@
       <c r="L3" s="1">
         <v>5.3</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F7A6F5-B20B-3245-983C-58342770EFE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C658BF99-C0E2-D648-80C2-7116D5BA4C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25900" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>week</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>https://youtu.be/Mh1oVqaj6dI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7JfYrW_P8KU</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M3" sqref="M3"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,6 +846,9 @@
       <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C658BF99-C0E2-D648-80C2-7116D5BA4C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AB991-4189-1A49-A8EC-5D03FF57BE80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25900" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="25900" yWindow="460" windowWidth="33160" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>week</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>https://youtu.be/7JfYrW_P8KU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iUAUUwJKad0</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,6 +882,9 @@
       <c r="L5" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78AB991-4189-1A49-A8EC-5D03FF57BE80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F246C6-B51D-CC45-A90B-9E892AB8E6FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25900" yWindow="460" windowWidth="33160" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="16660" yWindow="680" windowWidth="33160" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>week</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>https://youtu.be/iUAUUwJKad0</t>
+  </si>
+  <si>
+    <t>w3p1</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M5" sqref="M5"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,7 +899,9 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeswinehart/Documents/BRT/FunkProg/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F246C6-B51D-CC45-A90B-9E892AB8E6FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD2FD0-610B-DE41-B13B-6583E48FEEF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="680" windowWidth="33160" windowHeight="18760" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>lecture_link</t>
   </si>
   <si>
-    <t>Your final project is due before midnight</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -168,21 +165,12 @@
     <t>This lecture will focus on base R methods for looping, specifically with `for` loops and the `*apply` family of loops</t>
   </si>
   <si>
-    <t>Our first lab will ask you to extract elements from deeply nested lists while also using base R loops to conduct basic opeations.</t>
-  </si>
-  <si>
-    <t>Our second lecture on interaton will introduce [**{purrr}**](https://purrr.tidyverse.org) and contrast these functions with the base R versions. The concept of functional programming will also be discussed more explicitly.</t>
-  </si>
-  <si>
     <t>The second lab will get us using [**{purrr}**](https://purrr.tidyverse.org) in an applied way. We'll fit multiple models, iterate through nested lists, and make some real-world API calls.</t>
   </si>
   <si>
     <t>We'll discuss the take-home portion of the midterm and review Lab 1. We will then introduce `purrr::map_df()` and discuss how it can be used for batch loading data in combination with some functions from the [**{fs}**](https://fs.r-lib.org) package. This will include parsing data (as columns) from the file names. If we have time, we'll also introduce list columns.</t>
   </si>
   <si>
-    <t>The concept of list columns will be introduced and contrasted with the `base::split()`. By the end of this lecture you should be able to fluently nest and unnest data frames and understand why this is such a powerful framework. The last 20 minutes will be devoted to an "in-class" quiz.</t>
-  </si>
-  <si>
     <t>Looping variants</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>Making the internals of a function more complicated! But also keeping functions as simple as possible. Functions within functions!</t>
   </si>
   <si>
-    <t>Our final lecture on functions, we will discuss what makes a function "good" and what makes them fragile. In this spirit, we will create many small functions that build toward a single function. Additionally, we the concept of **non-standard evaluation** will be introduced, which is used prevalently throughout the tidyverse and can make programming with the tidyverse a bit more difficult.</t>
-  </si>
-  <si>
     <t>The very basics of shiny - the user interface (UI) and the server. We will work together to create a basic shiny application, modifying the default template to use ggplot2.</t>
   </si>
   <si>
@@ -331,6 +316,21 @@
   </si>
   <si>
     <t>w3p1</t>
+  </si>
+  <si>
+    <t>Our first lab will ask you to extract elements from deeply nested lists while also using base R loops to conduct basic operations.</t>
+  </si>
+  <si>
+    <t>Our second lecture on iteration will introduce [**{purrr}**](https://purrr.tidyverse.org) and contrast these functions with the base R versions. The concept of functional programming will also be discussed more explicitly.</t>
+  </si>
+  <si>
+    <t>The concept of list columns will be introduced and contrasted with the `base::split()`. By the end of this lecture you should be able to fluently nest and unnest data frames and understand why this is such a powerful framework. The last 20 minutes will be devoted to an \"in-class\" quiz.</t>
+  </si>
+  <si>
+    <t>Our final lecture on functions, we will discuss what makes a function \"good\" and what makes them fragile. In this spirit, we will create many small functions that build toward a single function. Additionally, we the concept of **non-standard evaluation** will be introduced, which is used prevalently throughout the tidyverse and can make programming with the tidyverse a bit more difficult.</t>
+  </si>
+  <si>
+    <t>Your final project is due before midnight.</t>
   </si>
 </sst>
 </file>
@@ -711,9 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,28 +783,28 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -815,25 +815,25 @@
         <v>44286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L3" s="1">
         <v>5.3</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -844,16 +844,16 @@
         <v>44291</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
@@ -868,25 +868,25 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -897,13 +897,13 @@
         <v>44298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -918,25 +918,25 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L7" s="1">
         <v>25</v>
@@ -950,23 +950,23 @@
         <v>44305</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -981,32 +981,32 @@
         <v>44307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M9" s="6"/>
     </row>
@@ -1018,11 +1018,11 @@
         <v>44312</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
@@ -1033,10 +1033,10 @@
         <v>44314</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
@@ -1047,17 +1047,17 @@
         <v>44319</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M12" s="6"/>
     </row>
@@ -1069,25 +1069,25 @@
         <v>44321</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M13" s="6"/>
     </row>
@@ -1103,22 +1103,22 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M14" s="6"/>
     </row>
@@ -1130,16 +1130,16 @@
         <v>44328</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="M15" s="6"/>
     </row>
@@ -1151,22 +1151,22 @@
         <v>44333</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -1177,29 +1177,29 @@
         <v>44335</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
@@ -1210,18 +1210,18 @@
         <v>44340</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F18" s="3"/>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -1232,23 +1232,23 @@
         <v>44342</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1259,11 +1259,11 @@
         <v>44347</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1275,11 +1275,11 @@
         <v>44349</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1293,13 +1293,13 @@
         <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeswinehart/Documents/BRT/FunkProg/c3-fp-2021/website-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD2FD0-610B-DE41-B13B-6583E48FEEF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92BA0D-A827-1247-ACB8-782C8131C927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -324,13 +324,13 @@
     <t>Our second lecture on iteration will introduce [**{purrr}**](https://purrr.tidyverse.org) and contrast these functions with the base R versions. The concept of functional programming will also be discussed more explicitly.</t>
   </si>
   <si>
-    <t>The concept of list columns will be introduced and contrasted with the `base::split()`. By the end of this lecture you should be able to fluently nest and unnest data frames and understand why this is such a powerful framework. The last 20 minutes will be devoted to an \"in-class\" quiz.</t>
-  </si>
-  <si>
-    <t>Our final lecture on functions, we will discuss what makes a function \"good\" and what makes them fragile. In this spirit, we will create many small functions that build toward a single function. Additionally, we the concept of **non-standard evaluation** will be introduced, which is used prevalently throughout the tidyverse and can make programming with the tidyverse a bit more difficult.</t>
-  </si>
-  <si>
     <t>Your final project is due before midnight.</t>
+  </si>
+  <si>
+    <t>The concept of list columns will be introduced and contrasted with the `base::split()`. By the end of this lecture you should be able to fluently nest and unnest data frames and understand why this is such a powerful framework. The last 20 minutes will be devoted to an \\"in-class\\" quiz.</t>
+  </si>
+  <si>
+    <t>Our final lecture on functions, we will discuss what makes a function \\"good\\" and what makes them fragile. In this spirit, we will create many small functions that build toward a single function. Additionally, we the concept of **non-standard evaluation** will be introduced, which is used prevalently throughout the tidyverse and can make programming with the tidyverse a bit more difficult.</t>
   </si>
 </sst>
 </file>
@@ -711,9 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,7 +985,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>79</v>
@@ -1133,7 +1133,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>22</v>
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>25</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92BA0D-A827-1247-ACB8-782C8131C927}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B46080-AFCF-C546-B324-6EE3FC095BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>week</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Our final lecture on functions, we will discuss what makes a function \\"good\\" and what makes them fragile. In this spirit, we will create many small functions that build toward a single function. Additionally, we the concept of **non-standard evaluation** will be introduced, which is used prevalently throughout the tidyverse and can make programming with the tidyverse a bit more difficult.</t>
+  </si>
+  <si>
+    <t>w4p1</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,7 +955,9 @@
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>47</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B46080-AFCF-C546-B324-6EE3FC095BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8E6CC-B4AE-9540-9CA9-95D196C1E41B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t>week</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>w4p1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pPQrLBPjHPc</t>
   </si>
 </sst>
 </file>
@@ -714,9 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,6 +911,9 @@
       <c r="E6" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A8E6CC-B4AE-9540-9CA9-95D196C1E41B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B722DB-DB42-AD4A-A168-0789A0E82232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>week</t>
   </si>
@@ -337,6 +337,15 @@
   </si>
   <si>
     <t>https://youtu.be/pPQrLBPjHPc</t>
+  </si>
+  <si>
+    <t>w4p2</t>
+  </si>
+  <si>
+    <t>w5p1</t>
+  </si>
+  <si>
+    <t>w5p2</t>
   </si>
 </sst>
 </file>
@@ -717,9 +726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,7 +1003,9 @@
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>100</v>
       </c>
@@ -1031,7 +1042,9 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1045,6 +1058,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>50</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B722DB-DB42-AD4A-A168-0789A0E82232}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA2452-E681-D440-8D37-AA71585DC708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>week</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>w5p2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jSJxvjJ0PNk</t>
   </si>
 </sst>
 </file>
@@ -726,9 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -991,7 +994,9 @@
       <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EA2452-E681-D440-8D37-AA71585DC708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD785F5-90FA-5A4A-86E4-2E2AEE3BF1D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
   <si>
     <t>week</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>https://youtu.be/jSJxvjJ0PNk</t>
+  </si>
+  <si>
+    <t>assignments/#quiz</t>
   </si>
 </sst>
 </file>
@@ -729,9 +732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1018,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD785F5-90FA-5A4A-86E4-2E2AEE3BF1D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B488EAD9-3F77-5947-B780-C138CA6533EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
   <si>
     <t>week</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>assignments/#quiz</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yF9Q9ViVcNQ</t>
   </si>
 </sst>
 </file>
@@ -732,9 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1041,9 @@
       <c r="L9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B488EAD9-3F77-5947-B780-C138CA6533EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501BA6F3-7C81-774E-9C02-5024E29B5864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
   <si>
     <t>week</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>https://youtu.be/yF9Q9ViVcNQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OiVIV_IWkYw</t>
   </si>
 </sst>
 </file>
@@ -735,9 +738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1061,6 +1064,9 @@
       <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="M10" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501BA6F3-7C81-774E-9C02-5024E29B5864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D5C88-A84E-2347-9B87-9983E1E38EB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
   <si>
     <t>week</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>https://youtu.be/OiVIV_IWkYw</t>
+  </si>
+  <si>
+    <t>w6p1</t>
+  </si>
+  <si>
+    <t>w6p2</t>
   </si>
 </sst>
 </file>
@@ -738,9 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1101,9 @@
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
@@ -1116,6 +1124,9 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>52</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D5C88-A84E-2347-9B87-9983E1E38EB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF9810-3639-B548-B375-C18C2E22F925}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
   <si>
     <t>week</t>
   </si>
@@ -364,6 +364,9 @@
   </si>
   <si>
     <t>w6p2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BQ7PX5AAA4Y</t>
   </si>
 </sst>
 </file>
@@ -744,9 +747,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,6 +1093,9 @@
       <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="M11" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF9810-3639-B548-B375-C18C2E22F925}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDFE1C-735C-E94B-B121-FC0A4D3F6CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>week</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>https://youtu.be/BQ7PX5AAA4Y</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UMKFBFteKiI</t>
+  </si>
+  <si>
+    <t>lab-3</t>
   </si>
 </sst>
 </file>
@@ -747,9 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1125,9 @@
       <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1138,7 +1146,7 @@
         <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>40</v>
@@ -1169,7 +1177,7 @@
         <v>81</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
@@ -1220,7 +1228,7 @@
         <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>16</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDFE1C-735C-E94B-B121-FC0A4D3F6CC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F47CB-0E25-9845-BB12-FD6F3E5F85C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
   <si>
     <t>week</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>lab-3</t>
+  </si>
+  <si>
+    <t>w7p2</t>
   </si>
 </sst>
 </file>
@@ -753,9 +756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1203,6 +1206,9 @@
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>101</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F47CB-0E25-9845-BB12-FD6F3E5F85C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DFFEBC-B7A8-DD49-BA87-2C196D791B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D16" sqref="D16"/>
     </sheetView>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DFFEBC-B7A8-DD49-BA87-2C196D791B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73C6F95-3BE6-BD4F-8BF2-4E7632D9FBA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
   <si>
     <t>week</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>w7p2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/E6koeYBK3JA</t>
   </si>
 </sst>
 </file>
@@ -756,9 +759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1166,9 @@
       <c r="L13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73C6F95-3BE6-BD4F-8BF2-4E7632D9FBA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D25342-9357-E640-8951-D6A531F94127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16700" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
+    <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
   <si>
     <t>week</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>https://youtu.be/E6koeYBK3JA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rV9QMh0wBcw</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M13" sqref="M13"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1202,9 @@
       <c r="L14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D25342-9357-E640-8951-D6A531F94127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911521E-0A91-2340-A411-D534836DBC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
   <si>
     <t>week</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>https://youtu.be/rV9QMh0wBcw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JrhBTl4EROQ</t>
+  </si>
+  <si>
+    <t>w8p1</t>
   </si>
 </sst>
 </file>
@@ -762,9 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,7 +1234,9 @@
       <c r="K15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1239,6 +1247,9 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>53</v>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911521E-0A91-2340-A411-D534836DBC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FF1B4-EBB4-E842-AB19-19370584C9D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>week</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>w8p1</t>
+  </si>
+  <si>
+    <t>w8p2</t>
   </si>
 </sst>
 </file>
@@ -768,9 +771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1277,7 +1280,9 @@
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>54</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3FF1B4-EBB4-E842-AB19-19370584C9D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEE623-8B71-7141-BF34-FD4F4787415E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>week</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>w8p2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/33spqdW2hwk</t>
   </si>
 </sst>
 </file>
@@ -771,9 +774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1269,6 +1272,9 @@
       <c r="K16" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M16" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEE623-8B71-7141-BF34-FD4F4787415E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162A15A-257E-7042-97E7-C625E1454AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>week</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>https://youtu.be/33spqdW2hwk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9h1u4sORQpk</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M16" sqref="M16"/>
+      <selection pane="topRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1279,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -1310,8 +1313,11 @@
       <c r="K17" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="M17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>9</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>10</v>
       </c>
@@ -1376,7 +1382,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>11</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162A15A-257E-7042-97E7-C625E1454AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4FE645-7079-DA49-A750-553BFDA81D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
   <si>
     <t>week</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>https://youtu.be/9h1u4sORQpk</t>
+  </si>
+  <si>
+    <t>w9p1</t>
   </si>
 </sst>
 </file>
@@ -777,9 +780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1330,9 @@
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>55</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4FE645-7079-DA49-A750-553BFDA81D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AEDFC0-F448-6B4C-BB27-56905A710378}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="126">
   <si>
     <t>week</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>w9p1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/uYZRw0-nU08</t>
   </si>
 </sst>
 </file>
@@ -781,8 +784,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,6 +1346,9 @@
       <c r="K18" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="M18" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AEDFC0-F448-6B4C-BB27-56905A710378}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE7B7B-8D03-C842-B50D-0690EC63FF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
   <si>
     <t>week</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>https://youtu.be/uYZRw0-nU08</t>
+  </si>
+  <si>
+    <t>w9p2</t>
   </si>
 </sst>
 </file>
@@ -783,9 +786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1360,7 +1363,9 @@
       <c r="C19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>56</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE7B7B-8D03-C842-B50D-0690EC63FF51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F173B7-3A4C-7340-B317-1D85060977B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
   <si>
     <t>week</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>w9p2</t>
+  </si>
+  <si>
+    <t>w10p2</t>
   </si>
 </sst>
 </file>
@@ -786,9 +789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAD85F2-0528-6D42-B5EC-DC3A01653045}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1408,7 +1411,9 @@
       <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F173B7-3A4C-7340-B317-1D85060977B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58792686-709C-2E43-B8EE-99198C1D70B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
   <si>
     <t>week</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>w10p2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/sRSwCdN7ZlI</t>
   </si>
 </sst>
 </file>
@@ -790,8 +793,8 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="167" zoomScaleNormal="68" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1384,6 +1387,9 @@
       <c r="K19" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="M19" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">

--- a/website-data/course-schedule.xlsx
+++ b/website-data/course-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Teaching/data_sci_specialization/2020-21/c3-fp-2021/website-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58792686-709C-2E43-B8EE-99198C1D70B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E62801-A375-EE45-86C6-6C3F198709BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="600" windowWidth="28800" windowHeight="17540" xr2:uid="{9B46E7E8-B2FF-5244-8636-A2DC9407036E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <t>week</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>https://youtu.be/sRSwCdN7ZlI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/85kQBw7um50</t>
   </si>
 </sst>
 </file>
@@ -1423,6 +1426,9 @@
       <c r="E21" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="M21" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
